--- a/Filtered_By_Region/Region IV-A/Region IV-A_ELECTRIFICATION.xlsx
+++ b/Filtered_By_Region/Region IV-A/Region IV-A_ELECTRIFICATION.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS245"/>
+  <dimension ref="A1:AU245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -659,7 +659,17 @@
           <t>Unnamed: 43</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 44</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 45</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
         <is>
           <t>Status as of July 4, 2025</t>
         </is>
@@ -773,7 +783,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR2" t="inlineStr">
+      <c r="AS2" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT2" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -887,7 +902,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR3" t="inlineStr">
+      <c r="AS3" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1001,7 +1021,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR4" t="inlineStr">
+      <c r="AS4" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1115,7 +1140,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR5" t="inlineStr">
+      <c r="AS5" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1229,7 +1259,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR6" t="inlineStr">
+      <c r="AS6" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT6" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1343,7 +1378,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR7" t="inlineStr">
+      <c r="AS7" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT7" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1457,7 +1497,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR8" t="inlineStr">
+      <c r="AS8" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1571,7 +1616,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR9" t="inlineStr">
+      <c r="AS9" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1685,7 +1735,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR10" t="inlineStr">
+      <c r="AS10" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT10" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1799,7 +1854,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR11" t="inlineStr">
+      <c r="AS11" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -1913,7 +1973,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR12" t="inlineStr">
+      <c r="AS12" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2027,7 +2092,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR13" t="inlineStr">
+      <c r="AS13" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2141,7 +2211,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR14" t="inlineStr">
+      <c r="AS14" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2255,7 +2330,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR15" t="inlineStr">
+      <c r="AS15" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2369,7 +2449,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR16" t="inlineStr">
+      <c r="AS16" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2483,7 +2568,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR17" t="inlineStr">
+      <c r="AS17" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2597,7 +2687,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR18" t="inlineStr">
+      <c r="AS18" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2711,7 +2806,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR19" t="inlineStr">
+      <c r="AS19" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT19" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2825,7 +2925,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR20" t="inlineStr">
+      <c r="AS20" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -2939,7 +3044,12 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR21" t="inlineStr">
+      <c r="AS21" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT21" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3076,7 +3186,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR22" t="inlineStr">
+      <c r="AT22" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3213,7 +3323,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR23" t="inlineStr">
+      <c r="AT23" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3350,7 +3460,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR24" t="inlineStr">
+      <c r="AT24" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3487,7 +3597,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR25" t="inlineStr">
+      <c r="AT25" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3604,7 +3714,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR26" t="inlineStr">
+      <c r="AT26" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3757,7 +3867,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR27" t="inlineStr">
+      <c r="AT27" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -3910,7 +4020,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR28" t="inlineStr">
+      <c r="AT28" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4063,7 +4173,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR29" t="inlineStr">
+      <c r="AT29" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4216,7 +4326,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR30" t="inlineStr">
+      <c r="AT30" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4369,7 +4479,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR31" t="inlineStr">
+      <c r="AT31" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -4522,7 +4632,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR32" t="inlineStr">
+      <c r="AT32" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4639,7 +4749,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR33" t="inlineStr">
+      <c r="AT33" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4756,7 +4866,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR34" t="inlineStr">
+      <c r="AT34" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -4898,7 +5008,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR35" t="inlineStr">
+      <c r="AT35" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5040,7 +5150,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR36" t="inlineStr">
+      <c r="AT36" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5182,7 +5292,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR37" t="inlineStr">
+      <c r="AT37" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5337,7 +5447,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR38" t="inlineStr">
+      <c r="AT38" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5492,7 +5602,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR39" t="inlineStr">
+      <c r="AT39" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5647,7 +5757,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR40" t="inlineStr">
+      <c r="AT40" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5769,7 +5879,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR41" t="inlineStr">
+      <c r="AT41" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -5891,7 +6001,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR42" t="inlineStr">
+      <c r="AT42" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6036,7 +6146,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR43" t="inlineStr">
+      <c r="AT43" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6153,7 +6263,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR44" t="inlineStr">
+      <c r="AT44" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6298,7 +6408,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR45" t="inlineStr">
+      <c r="AT45" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6417,6 +6527,11 @@
       </c>
       <c r="AR46" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT46" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -6534,6 +6649,11 @@
       </c>
       <c r="AR47" t="inlineStr">
         <is>
+          <t>BBM 2022</t>
+        </is>
+      </c>
+      <c r="AT47" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -6677,7 +6797,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR48" t="inlineStr">
+      <c r="AT48" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6827,7 +6947,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR49" t="inlineStr">
+      <c r="AT49" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -6977,7 +7097,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR50" t="inlineStr">
+      <c r="AT50" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7127,7 +7247,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR51" t="inlineStr">
+      <c r="AT51" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7277,7 +7397,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR52" t="inlineStr">
+      <c r="AT52" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7394,7 +7514,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR53" t="inlineStr">
+      <c r="AT53" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7511,7 +7631,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR54" t="inlineStr">
+      <c r="AT54" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7646,7 +7766,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR55" t="inlineStr">
+      <c r="AT55" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7788,7 +7908,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR56" t="inlineStr">
+      <c r="AT56" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -7933,7 +8053,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR57" t="inlineStr">
+      <c r="AT57" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8078,7 +8198,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR58" t="inlineStr">
+      <c r="AT58" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8231,7 +8351,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR59" t="inlineStr">
+      <c r="AT59" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8384,7 +8504,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR60" t="inlineStr">
+      <c r="AT60" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8542,7 +8662,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR61" t="inlineStr">
+      <c r="AT61" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8698,7 +8818,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR62" t="inlineStr">
+      <c r="AT62" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8855,7 +8975,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR63" t="inlineStr">
+      <c r="AT63" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -8993,7 +9113,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR64" t="inlineStr">
+      <c r="AT64" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9150,7 +9270,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR65" t="inlineStr">
+      <c r="AT65" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -9311,7 +9431,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR66" t="inlineStr">
+      <c r="AT66" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9471,7 +9591,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR67" t="inlineStr">
+      <c r="AT67" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9627,7 +9747,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR68" t="inlineStr">
+      <c r="AT68" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9757,7 +9877,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR69" t="inlineStr">
+      <c r="AT69" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -9913,7 +10033,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR70" t="inlineStr">
+      <c r="AT70" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -10069,7 +10189,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR71" t="inlineStr">
+      <c r="AT71" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -10223,7 +10343,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR72" t="inlineStr">
+      <c r="AT72" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10342,7 +10462,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR73" t="inlineStr">
+      <c r="AT73" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10461,7 +10581,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR74" t="inlineStr">
+      <c r="AT74" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10580,7 +10700,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR75" t="inlineStr">
+      <c r="AT75" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10699,7 +10819,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR76" t="inlineStr">
+      <c r="AT76" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10818,7 +10938,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR77" t="inlineStr">
+      <c r="AT77" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -10937,7 +11057,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR78" t="inlineStr">
+      <c r="AT78" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11051,7 +11171,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR79" t="inlineStr">
+      <c r="AT79" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -11165,7 +11285,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR80" t="inlineStr">
+      <c r="AT80" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11284,7 +11404,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR81" t="inlineStr">
+      <c r="AT81" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11403,7 +11523,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR82" t="inlineStr">
+      <c r="AT82" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11522,7 +11642,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR83" t="inlineStr">
+      <c r="AT83" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11641,7 +11761,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR84" t="inlineStr">
+      <c r="AT84" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11760,7 +11880,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR85" t="inlineStr">
+      <c r="AT85" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -11879,7 +11999,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR86" t="inlineStr">
+      <c r="AT86" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12030,7 +12150,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR87" t="inlineStr">
+      <c r="AT87" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12181,7 +12301,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR88" t="inlineStr">
+      <c r="AT88" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12332,7 +12452,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR89" t="inlineStr">
+      <c r="AT89" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12475,7 +12595,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR90" t="inlineStr">
+      <c r="AT90" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12600,7 +12720,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR91" t="inlineStr">
+      <c r="AT91" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12726,7 +12846,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR92" t="inlineStr">
+      <c r="AT92" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12854,7 +12974,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR93" t="inlineStr">
+      <c r="AT93" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -12981,6 +13101,11 @@
       </c>
       <c r="AR94" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT94" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -13116,6 +13241,11 @@
       </c>
       <c r="AR95" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT95" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -13249,7 +13379,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR96" t="inlineStr">
+      <c r="AT96" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13358,7 +13488,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR97" t="inlineStr">
+      <c r="AT97" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13508,6 +13638,11 @@
       </c>
       <c r="AR98" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT98" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -13626,7 +13761,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR99" t="inlineStr">
+      <c r="AT99" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13767,7 +13902,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR100" t="inlineStr">
+      <c r="AT100" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -13918,7 +14053,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR101" t="inlineStr">
+      <c r="AT101" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14027,7 +14162,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR102" t="inlineStr">
+      <c r="AT102" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14136,7 +14271,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR103" t="inlineStr">
+      <c r="AT103" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14245,7 +14380,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR104" t="inlineStr">
+      <c r="AT104" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14354,7 +14489,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR105" t="inlineStr">
+      <c r="AT105" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14463,7 +14598,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR106" t="inlineStr">
+      <c r="AT106" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14572,7 +14707,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR107" t="inlineStr">
+      <c r="AT107" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14681,7 +14816,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR108" t="inlineStr">
+      <c r="AT108" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14790,7 +14925,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR109" t="inlineStr">
+      <c r="AT109" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -14899,7 +15034,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR110" t="inlineStr">
+      <c r="AT110" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15040,7 +15175,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR111" t="inlineStr">
+      <c r="AT111" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15178,7 +15313,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR112" t="inlineStr">
+      <c r="AT112" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15316,7 +15451,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR113" t="inlineStr">
+      <c r="AT113" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15475,6 +15610,11 @@
       </c>
       <c r="AR114" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT114" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -15630,7 +15770,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR115" t="inlineStr">
+      <c r="AT115" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15787,7 +15927,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR116" t="inlineStr">
+      <c r="AT116" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -15944,7 +16084,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR117" t="inlineStr">
+      <c r="AT117" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16067,7 +16207,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR118" t="inlineStr">
+      <c r="AT118" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16211,6 +16351,11 @@
       </c>
       <c r="AR119" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT119" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -16343,6 +16488,11 @@
       </c>
       <c r="AR120" t="inlineStr">
         <is>
+          <t>BBM JULY 2022-DEC2022</t>
+        </is>
+      </c>
+      <c r="AT120" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -16460,6 +16610,11 @@
       </c>
       <c r="AR121" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT121" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -16577,7 +16732,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR122" t="inlineStr">
+      <c r="AT122" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16691,7 +16846,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR123" t="inlineStr">
+      <c r="AT123" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16800,7 +16955,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR124" t="inlineStr">
+      <c r="AT124" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -16909,7 +17064,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR125" t="inlineStr">
+      <c r="AT125" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -17018,7 +17173,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR126" t="inlineStr">
+      <c r="AT126" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17127,7 +17282,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR127" t="inlineStr">
+      <c r="AT127" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -17234,7 +17389,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR128" t="inlineStr">
+      <c r="AT128" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17341,7 +17496,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR129" t="inlineStr">
+      <c r="AT129" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17450,7 +17605,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR130" t="inlineStr">
+      <c r="AT130" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -17561,6 +17716,11 @@
       </c>
       <c r="AR131" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT131" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -17668,7 +17828,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR132" t="inlineStr">
+      <c r="AT132" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17777,7 +17937,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR133" t="inlineStr">
+      <c r="AT133" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17886,7 +18046,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR134" t="inlineStr">
+      <c r="AT134" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -17997,6 +18157,11 @@
       </c>
       <c r="AR135" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT135" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -18106,6 +18271,11 @@
       </c>
       <c r="AR136" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT136" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -18215,6 +18385,11 @@
       </c>
       <c r="AR137" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT137" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -18322,7 +18497,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR138" t="inlineStr">
+      <c r="AT138" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18431,7 +18606,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR139" t="inlineStr">
+      <c r="AT139" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18540,7 +18715,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR140" t="inlineStr">
+      <c r="AT140" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18649,7 +18824,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR141" t="inlineStr">
+      <c r="AT141" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18758,7 +18933,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR142" t="inlineStr">
+      <c r="AT142" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18867,7 +19042,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR143" t="inlineStr">
+      <c r="AT143" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -18976,7 +19151,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR144" t="inlineStr">
+      <c r="AT144" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19085,7 +19260,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR145" t="inlineStr">
+      <c r="AT145" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19194,7 +19369,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR146" t="inlineStr">
+      <c r="AT146" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19303,7 +19478,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR147" t="inlineStr">
+      <c r="AT147" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19412,7 +19587,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR148" t="inlineStr">
+      <c r="AT148" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19521,7 +19696,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR149" t="inlineStr">
+      <c r="AT149" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19630,7 +19805,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR150" t="inlineStr">
+      <c r="AT150" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19739,7 +19914,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR151" t="inlineStr">
+      <c r="AT151" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19848,7 +20023,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR152" t="inlineStr">
+      <c r="AT152" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -19957,7 +20132,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR153" t="inlineStr">
+      <c r="AT153" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20066,7 +20241,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR154" t="inlineStr">
+      <c r="AT154" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20175,7 +20350,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR155" t="inlineStr">
+      <c r="AT155" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20284,7 +20459,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR156" t="inlineStr">
+      <c r="AT156" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20393,7 +20568,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR157" t="inlineStr">
+      <c r="AT157" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20502,7 +20677,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR158" t="inlineStr">
+      <c r="AT158" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20611,7 +20786,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR159" t="inlineStr">
+      <c r="AT159" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20720,7 +20895,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR160" t="inlineStr">
+      <c r="AT160" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20829,7 +21004,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR161" t="inlineStr">
+      <c r="AT161" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -20938,7 +21113,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR162" t="inlineStr">
+      <c r="AT162" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21047,7 +21222,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR163" t="inlineStr">
+      <c r="AT163" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21156,7 +21331,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR164" t="inlineStr">
+      <c r="AT164" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21265,7 +21440,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR165" t="inlineStr">
+      <c r="AT165" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21374,7 +21549,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR166" t="inlineStr">
+      <c r="AT166" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21483,7 +21658,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR167" t="inlineStr">
+      <c r="AT167" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21592,7 +21767,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR168" t="inlineStr">
+      <c r="AT168" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21701,7 +21876,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR169" t="inlineStr">
+      <c r="AT169" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21810,7 +21985,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR170" t="inlineStr">
+      <c r="AT170" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -21919,7 +22094,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR171" t="inlineStr">
+      <c r="AT171" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22028,7 +22203,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR172" t="inlineStr">
+      <c r="AT172" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22137,7 +22312,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR173" t="inlineStr">
+      <c r="AT173" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22246,7 +22421,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR174" t="inlineStr">
+      <c r="AT174" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22355,7 +22530,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR175" t="inlineStr">
+      <c r="AT175" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22464,7 +22639,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR176" t="inlineStr">
+      <c r="AT176" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22573,7 +22748,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR177" t="inlineStr">
+      <c r="AT177" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22682,7 +22857,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR178" t="inlineStr">
+      <c r="AT178" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22829,7 +23004,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR179" t="inlineStr">
+      <c r="AT179" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -22938,7 +23113,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR180" t="inlineStr">
+      <c r="AT180" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23047,7 +23222,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR181" t="inlineStr">
+      <c r="AT181" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23156,7 +23331,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR182" t="inlineStr">
+      <c r="AT182" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23265,7 +23440,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR183" t="inlineStr">
+      <c r="AT183" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23374,7 +23549,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR184" t="inlineStr">
+      <c r="AT184" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23483,7 +23658,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR185" t="inlineStr">
+      <c r="AT185" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23594,6 +23769,11 @@
       </c>
       <c r="AR186" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT186" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -23701,7 +23881,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR187" t="inlineStr">
+      <c r="AT187" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23810,7 +23990,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR188" t="inlineStr">
+      <c r="AT188" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -23921,6 +24101,11 @@
       </c>
       <c r="AR189" t="inlineStr">
         <is>
+          <t>BBM 2025 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT189" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24028,7 +24213,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR190" t="inlineStr">
+      <c r="AT190" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24137,7 +24322,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR191" t="inlineStr">
+      <c r="AT191" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24246,7 +24431,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR192" t="inlineStr">
+      <c r="AT192" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24355,7 +24540,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR193" t="inlineStr">
+      <c r="AT193" t="inlineStr">
         <is>
           <t>COMPLETED</t>
         </is>
@@ -24498,6 +24683,11 @@
       </c>
       <c r="AR194" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT194" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24624,6 +24814,11 @@
       </c>
       <c r="AR195" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT195" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24750,6 +24945,11 @@
       </c>
       <c r="AR196" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT196" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -24878,6 +25078,11 @@
       </c>
       <c r="AR197" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT197" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25018,6 +25223,16 @@
       </c>
       <c r="AR198" t="inlineStr">
         <is>
+          <t>bbm 2023 ONGRID</t>
+        </is>
+      </c>
+      <c r="AS198" t="inlineStr">
+        <is>
+          <t>ongrid</t>
+        </is>
+      </c>
+      <c r="AT198" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25164,6 +25379,11 @@
       </c>
       <c r="AR199" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT199" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25310,6 +25530,11 @@
       </c>
       <c r="AR200" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT200" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25456,6 +25681,11 @@
       </c>
       <c r="AR201" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT201" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25602,6 +25832,11 @@
       </c>
       <c r="AR202" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT202" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25748,6 +25983,11 @@
       </c>
       <c r="AR203" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT203" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -25894,6 +26134,11 @@
       </c>
       <c r="AR204" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT204" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26040,6 +26285,11 @@
       </c>
       <c r="AR205" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT205" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26186,6 +26436,11 @@
       </c>
       <c r="AR206" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT206" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26332,6 +26587,11 @@
       </c>
       <c r="AR207" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT207" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26474,6 +26734,11 @@
       </c>
       <c r="AR208" t="inlineStr">
         <is>
+          <t>BBM 2023 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT208" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -26617,7 +26882,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR209" t="inlineStr">
+      <c r="AT209" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -26762,7 +27027,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR210" t="inlineStr">
+      <c r="AT210" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -26914,7 +27179,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR211" t="inlineStr">
+      <c r="AT211" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -27062,7 +27327,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR212" t="inlineStr">
+      <c r="AT212" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -27207,7 +27472,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR213" t="inlineStr">
+      <c r="AT213" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -27352,7 +27617,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR214" t="inlineStr">
+      <c r="AT214" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -27497,7 +27762,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR215" t="inlineStr">
+      <c r="AT215" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -27647,7 +27912,7 @@
           <t>ENERGIZATION</t>
         </is>
       </c>
-      <c r="AR216" t="inlineStr">
+      <c r="AT216" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -27799,7 +28064,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR217" t="inlineStr">
+      <c r="AT217" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -27911,7 +28176,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR218" t="inlineStr">
+      <c r="AT218" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -28029,7 +28294,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR219" t="inlineStr">
+      <c r="AT219" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -28167,7 +28432,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR220" t="inlineStr">
+      <c r="AT220" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -28305,7 +28570,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR221" t="inlineStr">
+      <c r="AT221" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -28443,7 +28708,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR222" t="inlineStr">
+      <c r="AT222" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -28593,6 +28858,11 @@
       </c>
       <c r="AR223" t="inlineStr">
         <is>
+          <t>BBM 2025 ONGRID</t>
+        </is>
+      </c>
+      <c r="AT223" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -28747,7 +29017,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR224" t="inlineStr">
+      <c r="AT224" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -28903,7 +29173,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR225" t="inlineStr">
+      <c r="AT225" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -29048,7 +29318,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR226" t="inlineStr">
+      <c r="AT226" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -29206,7 +29476,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR227" t="inlineStr">
+      <c r="AT227" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -29328,7 +29598,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR228" t="inlineStr">
+      <c r="AT228" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -29450,7 +29720,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR229" t="inlineStr">
+      <c r="AT229" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -29572,7 +29842,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR230" t="inlineStr">
+      <c r="AT230" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -29724,6 +29994,11 @@
       </c>
       <c r="AR231" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT231" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -29874,6 +30149,11 @@
       </c>
       <c r="AR232" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT232" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -30022,6 +30302,11 @@
       </c>
       <c r="AR233" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT233" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -30167,6 +30452,11 @@
       </c>
       <c r="AR234" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT234" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -30315,6 +30605,11 @@
       </c>
       <c r="AR235" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT235" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -30462,6 +30757,11 @@
       </c>
       <c r="AR236" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT236" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -30612,7 +30912,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR237" t="inlineStr">
+      <c r="AT237" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -30740,6 +31040,11 @@
       </c>
       <c r="AR238" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT238" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -30874,6 +31179,11 @@
       </c>
       <c r="AR239" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT239" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31000,6 +31310,11 @@
       </c>
       <c r="AR240" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT240" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31140,7 +31455,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR241" t="inlineStr">
+      <c r="AT241" t="inlineStr">
         <is>
           <t>not yet started</t>
         </is>
@@ -31272,7 +31587,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR242" t="inlineStr">
+      <c r="AT242" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -31422,6 +31737,11 @@
       </c>
       <c r="AR243" t="inlineStr">
         <is>
+          <t>BBM 2024 UPGRADE</t>
+        </is>
+      </c>
+      <c r="AT243" t="inlineStr">
+        <is>
           <t>COMPLETED</t>
         </is>
       </c>
@@ -31532,7 +31852,7 @@
           <t>UPGRADING</t>
         </is>
       </c>
-      <c r="AR244" t="inlineStr">
+      <c r="AT244" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -31685,7 +32005,7 @@
           <t>SOLAR</t>
         </is>
       </c>
-      <c r="AR245" t="inlineStr">
+      <c r="AT245" t="inlineStr">
         <is>
           <t>ONGOING</t>
         </is>
@@ -31693,7 +32013,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation sqref="AS2:AS245" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="AU2:AU245" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>=DropdownOptions!$A$1:$A$7</formula1>
     </dataValidation>
   </dataValidations>
